--- a/Stocks/MU.xlsx
+++ b/Stocks/MU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E633738F-1720-4784-95C2-524E07783C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{E633738F-1720-4784-95C2-524E07783C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ECA4FEE-B362-4CBA-8BA7-8972F18C6CA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22F1F091-5016-408A-81B9-56D454FAA521}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{22F1F091-5016-408A-81B9-56D454FAA521}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Price</t>
   </si>
@@ -124,6 +124,84 @@
   </si>
   <si>
     <t>val</t>
+  </si>
+  <si>
+    <t>Gross %</t>
+  </si>
+  <si>
+    <t>Operating %</t>
+  </si>
+  <si>
+    <t>NI y/y</t>
+  </si>
+  <si>
+    <t>Rev q/q</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Receivebles</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>ROUA</t>
+  </si>
+  <si>
+    <t>Intagibles</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>OLL</t>
+  </si>
+  <si>
+    <t>Gov</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>L+S/E</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Per Share</t>
   </si>
 </sst>
 </file>
@@ -132,7 +210,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,14 +247,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,13 +657,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FF860D-DCEE-4BAF-B2A6-C0AB9AD24586}">
-  <dimension ref="B2:AR16"/>
+  <dimension ref="B2:AR50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,35 +828,35 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <f>+D3-D4</f>
+        <f t="shared" ref="D5:K5" si="1">+D3-D4</f>
         <v>-35</v>
       </c>
       <c r="E5" s="1">
-        <f>+E3-E4</f>
+        <f t="shared" si="1"/>
         <v>1079</v>
       </c>
       <c r="F5" s="1">
-        <f>+F3-F4</f>
+        <f t="shared" si="1"/>
         <v>1832</v>
       </c>
       <c r="G5" s="1">
-        <f>+G3-G4</f>
+        <f t="shared" si="1"/>
         <v>2737</v>
       </c>
       <c r="H5" s="1">
-        <f>+H3-H4</f>
+        <f t="shared" si="1"/>
         <v>3348</v>
       </c>
       <c r="I5" s="1">
-        <f>+I3-I4</f>
+        <f t="shared" si="1"/>
         <v>2963</v>
       </c>
       <c r="J5" s="1">
-        <f>+J3-J4</f>
+        <f t="shared" si="1"/>
         <v>3508</v>
       </c>
       <c r="K5" s="1">
-        <f>+K3-K4</f>
+        <f t="shared" si="1"/>
         <v>5054</v>
       </c>
       <c r="S5" s="1">
@@ -827,11 +906,11 @@
         <v>3114</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:T8" si="1">+SUM(D6:G6)</f>
+        <f t="shared" ref="T6:T8" si="2">+SUM(D6:G6)</f>
         <v>3430</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" ref="U6:U13" si="2">+SUM(H6:K6)</f>
+        <f t="shared" ref="U6:U13" si="3">+SUM(H6:K6)</f>
         <v>3798</v>
       </c>
     </row>
@@ -869,11 +948,11 @@
         <v>920</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1129</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1205</v>
       </c>
     </row>
@@ -911,11 +990,11 @@
         <v>124</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-251</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -924,35 +1003,35 @@
         <v>23</v>
       </c>
       <c r="D9" s="1">
-        <f>+D8+D7+D6</f>
+        <f t="shared" ref="D9:K9" si="4">+D8+D7+D6</f>
         <v>1093</v>
       </c>
       <c r="E9" s="1">
-        <f>+E8+E7+E6</f>
+        <f t="shared" si="4"/>
         <v>888</v>
       </c>
       <c r="F9" s="1">
-        <f>+F8+F7+F6</f>
+        <f t="shared" si="4"/>
         <v>1113</v>
       </c>
       <c r="G9" s="1">
-        <f>+G8+G7+G6</f>
+        <f t="shared" si="4"/>
         <v>1214</v>
       </c>
       <c r="H9" s="1">
-        <f>+H8+H7+H6</f>
+        <f t="shared" si="4"/>
         <v>1174</v>
       </c>
       <c r="I9" s="1">
-        <f>+I8+I7+I6</f>
+        <f t="shared" si="4"/>
         <v>1190</v>
       </c>
       <c r="J9" s="1">
-        <f>+J8+J7+J6</f>
+        <f t="shared" si="4"/>
         <v>1339</v>
       </c>
       <c r="K9" s="1">
-        <f>+K8+K7+K6</f>
+        <f t="shared" si="4"/>
         <v>1361</v>
       </c>
       <c r="S9" s="1">
@@ -973,35 +1052,35 @@
         <v>17</v>
       </c>
       <c r="D10" s="1">
-        <f>+D5-D9</f>
+        <f t="shared" ref="D10:K10" si="5">+D5-D9</f>
         <v>-1128</v>
       </c>
       <c r="E10" s="1">
-        <f>+E5-E9</f>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="F10" s="1">
-        <f>+F5-F9</f>
+        <f t="shared" si="5"/>
         <v>719</v>
       </c>
       <c r="G10" s="1">
-        <f>+G5-G9</f>
+        <f t="shared" si="5"/>
         <v>1523</v>
       </c>
       <c r="H10" s="1">
-        <f>+H5-H9</f>
+        <f t="shared" si="5"/>
         <v>2174</v>
       </c>
       <c r="I10" s="1">
-        <f>+I5-I9</f>
+        <f t="shared" si="5"/>
         <v>1773</v>
       </c>
       <c r="J10" s="1">
-        <f>+J5-J9</f>
+        <f t="shared" si="5"/>
         <v>2169</v>
       </c>
       <c r="K10" s="1">
-        <f>+K5-K9</f>
+        <f t="shared" si="5"/>
         <v>3693</v>
       </c>
       <c r="S10" s="1">
@@ -1058,12 +1137,32 @@
         <v>87</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11:T13" si="3">+SUM(D11:G11)</f>
+        <f t="shared" ref="T11:T13" si="6">+SUM(D11:G11)</f>
         <v>-64</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-116</v>
+      </c>
+      <c r="V11">
+        <f>+U24*3.05%</f>
+        <v>364.048</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ref="W11:Z11" si="7">+V24*3.05%</f>
+        <v>714.91231399999992</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="7"/>
+        <v>1192.8407477769999</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="7"/>
+        <v>1850.5293544942986</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="7"/>
+        <v>2761.9656885388631</v>
       </c>
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.2">
@@ -1071,35 +1170,35 @@
         <v>19</v>
       </c>
       <c r="D12" s="1">
-        <f>+D10+D11</f>
+        <f t="shared" ref="D12:K12" si="8">+D10+D11</f>
         <v>-1155</v>
       </c>
       <c r="E12" s="1">
-        <f>+E10+E11</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="F12" s="1">
-        <f>+F10+F11</f>
+        <f t="shared" si="8"/>
         <v>715</v>
       </c>
       <c r="G12" s="1">
-        <f>+G10+G11</f>
+        <f t="shared" si="8"/>
         <v>1511</v>
       </c>
       <c r="H12" s="1">
-        <f>+H10+H11</f>
+        <f t="shared" si="8"/>
         <v>2152</v>
       </c>
       <c r="I12" s="1">
-        <f>+I10+I11</f>
+        <f t="shared" si="8"/>
         <v>1758</v>
       </c>
       <c r="J12" s="1">
-        <f>+J10+J11</f>
+        <f t="shared" si="8"/>
         <v>2113</v>
       </c>
       <c r="K12" s="1">
-        <f>+K10+K11</f>
+        <f t="shared" si="8"/>
         <v>3670</v>
       </c>
       <c r="S12" s="1">
@@ -1149,11 +1248,11 @@
         <v>-177</v>
       </c>
       <c r="T13" s="1">
+        <f t="shared" si="6"/>
+        <v>-451</v>
+      </c>
+      <c r="U13" s="1">
         <f t="shared" si="3"/>
-        <v>-451</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="2"/>
         <v>-1124</v>
       </c>
     </row>
@@ -1162,43 +1261,43 @@
         <v>21</v>
       </c>
       <c r="D14" s="4">
-        <f>+D12+D13</f>
+        <f t="shared" ref="D14:K14" si="9">+D12+D13</f>
         <v>-1228</v>
       </c>
       <c r="E14" s="4">
-        <f>+E12+E13</f>
+        <f t="shared" si="9"/>
         <v>792</v>
       </c>
       <c r="F14" s="4">
-        <f>+F12+F13</f>
+        <f t="shared" si="9"/>
         <v>338</v>
       </c>
       <c r="G14" s="4">
-        <f>+G12+G13</f>
+        <f t="shared" si="9"/>
         <v>888</v>
       </c>
       <c r="H14" s="4">
-        <f>+H12+H13</f>
+        <f t="shared" si="9"/>
         <v>1869</v>
       </c>
       <c r="I14" s="4">
-        <f>+I12+I13</f>
+        <f t="shared" si="9"/>
         <v>1581</v>
       </c>
       <c r="J14" s="4">
-        <f>+J12+J13</f>
+        <f t="shared" si="9"/>
         <v>1878</v>
       </c>
       <c r="K14" s="4">
-        <f>+K12+K13</f>
+        <f t="shared" si="9"/>
         <v>3241</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N14" s="5">
-        <f>NPV(0.07,V14:AR14)-main!M5+main!M6</f>
-        <v>261998.01412862458</v>
+        <f>NPV(0.085,V14:AR14)-main!M5+main!M6</f>
+        <v>310203.81863401772</v>
       </c>
       <c r="S14" s="4">
         <f>+S12+S13</f>
@@ -1213,96 +1312,96 @@
         <v>8569</v>
       </c>
       <c r="V14" s="3">
-        <f>+U14*1.3</f>
-        <v>11139.7</v>
+        <f>+U14*1.3+V11</f>
+        <v>11503.748000000001</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" ref="W14:X14" si="4">+V14*1.3</f>
-        <v>14481.61</v>
+        <f t="shared" ref="W14:Z14" si="10">+V14*1.3+W11</f>
+        <v>15669.784714000001</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="4"/>
-        <v>18826.093000000001</v>
+        <f t="shared" si="10"/>
+        <v>21563.560875977004</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" ref="W14:Z14" si="5">+X14*1.25</f>
-        <v>23532.616249999999</v>
+        <f t="shared" si="10"/>
+        <v>29883.158493264404</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="5"/>
-        <v>29415.770312499997</v>
+        <f t="shared" si="10"/>
+        <v>41610.07172978259</v>
       </c>
       <c r="AA14" s="3">
         <f>+Z14*0.98</f>
-        <v>28827.454906249997</v>
+        <v>40777.870295186935</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" ref="AB14:AR14" si="6">+AA14*0.98</f>
-        <v>28250.905808124997</v>
+        <f t="shared" ref="AB14:AR14" si="11">+AA14*0.98</f>
+        <v>39962.312889283196</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="6"/>
-        <v>27685.887691962496</v>
+        <f t="shared" si="11"/>
+        <v>39163.066631497531</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="6"/>
-        <v>27132.169938123247</v>
+        <f t="shared" si="11"/>
+        <v>38379.805298867577</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="6"/>
-        <v>26589.526539360781</v>
+        <f t="shared" si="11"/>
+        <v>37612.209192890223</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="6"/>
-        <v>26057.736008573564</v>
+        <f t="shared" si="11"/>
+        <v>36859.965009032421</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="6"/>
-        <v>25536.581288402092</v>
+        <f t="shared" si="11"/>
+        <v>36122.765708851774</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="6"/>
-        <v>25025.849662634049</v>
+        <f t="shared" si="11"/>
+        <v>35400.310394674736</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="6"/>
-        <v>24525.332669381369</v>
+        <f t="shared" si="11"/>
+        <v>34692.304186781243</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="6"/>
-        <v>24034.826015993742</v>
+        <f t="shared" si="11"/>
+        <v>33998.458103045617</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="6"/>
-        <v>23554.129495673867</v>
+        <f t="shared" si="11"/>
+        <v>33318.488940984702</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="6"/>
-        <v>23083.046905760391</v>
+        <f t="shared" si="11"/>
+        <v>32652.119162165007</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="6"/>
-        <v>22621.385967645183</v>
+        <f t="shared" si="11"/>
+        <v>31999.076778921706</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="6"/>
-        <v>22168.958248292278</v>
+        <f t="shared" si="11"/>
+        <v>31359.095243343272</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="6"/>
-        <v>21725.579083326433</v>
+        <f t="shared" si="11"/>
+        <v>30731.913338476406</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" si="6"/>
-        <v>21291.067501659905</v>
+        <f t="shared" si="11"/>
+        <v>30117.275071706877</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="6"/>
-        <v>20865.246151626707</v>
+        <f t="shared" si="11"/>
+        <v>29514.92957027274</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="6"/>
-        <v>20447.941228594173</v>
+        <f t="shared" si="11"/>
+        <v>28924.630978867284</v>
       </c>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.2">
@@ -1310,40 +1409,43 @@
         <v>22</v>
       </c>
       <c r="D15" s="2">
-        <f>+D14/D16</f>
+        <f t="shared" ref="D15:K15" si="12">+D14/D16</f>
         <v>-1.1163636363636364</v>
       </c>
       <c r="E15" s="2">
-        <f>+E14/E16</f>
+        <f t="shared" si="12"/>
         <v>0.71739130434782605</v>
       </c>
       <c r="F15" s="2">
-        <f>+F14/F16</f>
+        <f t="shared" si="12"/>
         <v>0.30532971996386632</v>
       </c>
       <c r="G15" s="2">
-        <f>+G14/G16</f>
+        <f t="shared" si="12"/>
         <v>0.81244281793229645</v>
       </c>
       <c r="H15" s="2">
-        <f>+H14/H16</f>
+        <f t="shared" si="12"/>
         <v>1.6822682268226823</v>
       </c>
       <c r="I15" s="2">
-        <f>+I14/I16</f>
+        <f t="shared" si="12"/>
         <v>1.4179372197309417</v>
       </c>
       <c r="J15" s="1">
-        <f>+J14/J16</f>
+        <f t="shared" si="12"/>
         <v>1.6797853309481217</v>
       </c>
       <c r="K15" s="2">
-        <f>+K14/K16</f>
+        <f t="shared" si="12"/>
         <v>2.9463636363636363</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
       </c>
       <c r="N15" s="6">
         <f>+N14/main!M3</f>
-        <v>233.41286592126113</v>
+        <v>276.35920282792142</v>
       </c>
       <c r="S15" s="2">
         <f>+S14/S16</f>
@@ -1394,6 +1496,398 @@
       </c>
       <c r="U16">
         <v>1116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <f t="shared" ref="E18:J18" si="13">+E3/D3-1</f>
+        <v>0.23233178163351664</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="13"/>
+        <v>0.16947115384615374</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="13"/>
+        <v>0.13786521802965801</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="13"/>
+        <v>0.12374193548387091</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="13"/>
+        <v>-7.5324377081180338E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="13"/>
+        <v>0.15497330187507763</v>
+      </c>
+      <c r="K18" s="7">
+        <f>+K3/J3-1</f>
+        <v>0.21653585635953121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" ref="D19:K19" si="14">+D5/D3</f>
+        <v>-7.4058400338552688E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="14"/>
+        <v>0.18526785714285715</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="14"/>
+        <v>0.26897665541036558</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="14"/>
+        <v>0.35316129032258065</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="14"/>
+        <v>0.38442990010334138</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="14"/>
+        <v>0.36793741462808893</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="14"/>
+        <v>0.37716374583378132</v>
+      </c>
+      <c r="K19" s="7">
+        <f>+K5/K3</f>
+        <v>0.44666372072470173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:K20" si="15">+D10/D3</f>
+        <v>-0.23867964451967838</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="15"/>
+        <v>3.2795329670329672E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="15"/>
+        <v>0.10556452796946117</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="15"/>
+        <v>0.19651612903225807</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="15"/>
+        <v>0.24962682282696061</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="15"/>
+        <v>0.22016639761579535</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="15"/>
+        <v>0.23320073110418235</v>
+      </c>
+      <c r="K20" s="7">
+        <f>+K10/K3</f>
+        <v>0.32638091029606719</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:J21" si="16">+H14/D14-1</f>
+        <v>-2.521986970684039</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="16"/>
+        <v>0.9962121212121211</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="16"/>
+        <v>4.556213017751479</v>
+      </c>
+      <c r="K21" s="7">
+        <f>+K14/G14-1</f>
+        <v>2.6497747747747749</v>
+      </c>
+      <c r="U21" s="7">
+        <f>+U14/T14-1</f>
+        <v>9.8468354430379748</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" ref="V21:Z21" si="17">+V14/U14-1</f>
+        <v>0.34248430388610118</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="17"/>
+        <v>0.36214603397084155</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="17"/>
+        <v>0.37612362068454397</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="17"/>
+        <v>0.3858174290015286</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="17"/>
+        <v>0.39242549408428173</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <f>9642+665+1629</f>
+        <v>11936</v>
+      </c>
+      <c r="V24">
+        <f>+U24+V14</f>
+        <v>23439.748</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:Z24" si="18">+V24+W14</f>
+        <v>39109.532714000001</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="18"/>
+        <v>60673.093589977005</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="18"/>
+        <v>90556.252083241416</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="18"/>
+        <v>132166.32381302401</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31">
+        <v>82798</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <f>560+14017</f>
+        <v>14577</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38">
+        <v>28633</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39">
+        <f>+U31-U38</f>
+        <v>54165</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="U40">
+        <f>+U38+U39</f>
+        <v>82798</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" s="7">
+        <f>+U14/U31</f>
+        <v>0.10349283799125583</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" s="7">
+        <f>+U14/U39</f>
+        <v>0.15820179082433306</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45">
+        <v>1559</v>
+      </c>
+      <c r="T45">
+        <v>8507</v>
+      </c>
+      <c r="U45">
+        <v>17525</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46">
+        <v>-6191</v>
+      </c>
+      <c r="T46">
+        <v>-8309</v>
+      </c>
+      <c r="U46">
+        <v>-14087</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="S47">
+        <v>4983</v>
+      </c>
+      <c r="T47">
+        <v>-1842</v>
+      </c>
+      <c r="U47">
+        <v>-850</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="S48">
+        <f>+S45+S46+S47</f>
+        <v>351</v>
+      </c>
+      <c r="T48">
+        <f>+T45+T46+T47</f>
+        <v>-1644</v>
+      </c>
+      <c r="U48">
+        <f>+U45+U46+U47</f>
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="S49">
+        <v>-7676</v>
+      </c>
+      <c r="T49">
+        <v>-8386</v>
+      </c>
+      <c r="U49">
+        <v>-15857</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" s="3">
+        <f>+S45+S49</f>
+        <v>-6117</v>
+      </c>
+      <c r="T50" s="3">
+        <f>+T45+T49</f>
+        <v>121</v>
+      </c>
+      <c r="U50" s="3">
+        <f>+U45+U49</f>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/MU.xlsx
+++ b/Stocks/MU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{E633738F-1720-4784-95C2-524E07783C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ECA4FEE-B362-4CBA-8BA7-8972F18C6CA7}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{E633738F-1720-4784-95C2-524E07783C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C382489-E494-417C-BE32-E0F2C7B5A4D9}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{22F1F091-5016-408A-81B9-56D454FAA521}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{22F1F091-5016-408A-81B9-56D454FAA521}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Price</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Per Share</t>
+  </si>
+  <si>
+    <t>Designs, Develops and Manufactures memory and storage products</t>
   </si>
 </sst>
 </file>
@@ -271,6 +274,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,15 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E00F5D9-36CD-4E34-9221-2C9BFE313201}">
-  <dimension ref="L2:M7"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +613,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>2</v>
       </c>
@@ -614,7 +621,7 @@
         <v>1122.4660349999999</v>
       </c>
     </row>
-    <row r="4" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -623,7 +630,7 @@
         <v>259289.65408499999</v>
       </c>
     </row>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -632,7 +639,7 @@
         <v>11337</v>
       </c>
     </row>
-    <row r="6" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -641,13 +648,18 @@
         <v>14577</v>
       </c>
     </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1">
         <f>+M4-M5+M6</f>
         <v>262529.65408499999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -659,11 +671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FF860D-DCEE-4BAF-B2A6-C0AB9AD24586}">
   <dimension ref="B2:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1537,7 +1549,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19:K19" si="14">+D5/D3</f>
+        <f t="shared" ref="D19:J19" si="14">+D5/D3</f>
         <v>-7.4058400338552688E-3</v>
       </c>
       <c r="E19" s="7">
@@ -1574,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20:K20" si="15">+D10/D3</f>
+        <f t="shared" ref="D20:J20" si="15">+D10/D3</f>
         <v>-0.23867964451967838</v>
       </c>
       <c r="E20" s="7">
